--- a/models/demo-species/demo-species.xlsx
+++ b/models/demo-species/demo-species.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shxie/Projects/anse-models/demo-species/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6735C482-146F-E44E-80CE-24B1BAAE8CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96355D77-A691-254A-BEC0-1D45BEB6D9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22460" yWindow="600" windowWidth="28740" windowHeight="26980" activeTab="3" xr2:uid="{73351A0E-E394-C94F-8AB9-3EA9DA143F24}"/>
+    <workbookView xWindow="25600" yWindow="600" windowWidth="25600" windowHeight="26900" xr2:uid="{73351A0E-E394-C94F-8AB9-3EA9DA143F24}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs - Flow Network" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
     <author>Magnan, Michael</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{CC7F5D1D-B34F-1646-BA4F-A18CC3CBED25}">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{CC7F5D1D-B34F-1646-BA4F-A18CC3CBED25}">
       <text>
         <r>
           <rPr>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="124">
   <si>
     <t>Keyword: POOL</t>
   </si>
@@ -986,12 +986,6 @@
     <t>SPECIES</t>
   </si>
   <si>
-    <t>Softwood</t>
-  </si>
-  <si>
-    <t>Hardwood</t>
-  </si>
-  <si>
     <t>Bioenergy</t>
   </si>
   <si>
@@ -1011,6 +1005,18 @@
   </si>
   <si>
     <t>CAT</t>
+  </si>
+  <si>
+    <t>SPF</t>
+  </si>
+  <si>
+    <t>Aspen</t>
+  </si>
+  <si>
+    <t>DFL</t>
+  </si>
+  <si>
+    <t>Hem-Fir</t>
   </si>
 </sst>
 </file>
@@ -1441,22 +1447,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F935C300-5F44-C54A-ADD4-2A504DCCAD49}">
-  <dimension ref="B1:L66"/>
+  <dimension ref="B1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" customWidth="1"/>
     <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
@@ -1681,26 +1687,26 @@
     </row>
     <row r="20" spans="2:7" ht="16" customHeight="1">
       <c r="B20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="16" customHeight="1">
       <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
         <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="16" customHeight="1">
       <c r="B22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:7" s="3" customFormat="1" ht="16" customHeight="1">
@@ -2044,19 +2050,19 @@
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D49">
-        <f>F28</f>
+        <f>$F$28</f>
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G49" t="str">
-        <f>'Inputs - Categorical'!C4</f>
+        <f>'Inputs - Categorical'!$C$4</f>
         <v>Sawnwood</v>
       </c>
       <c r="I49" t="str">
-        <f>'Inputs - Categorical'!$C$16</f>
-        <v>Hardwood</v>
+        <f>'Inputs - Categorical'!$C$15</f>
+        <v>SPF</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="16" customHeight="1">
@@ -2068,19 +2074,19 @@
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D52" si="2">F29</f>
+        <f>$F$29</f>
         <v>2</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="G50" t="str">
-        <f>'Inputs - Categorical'!C5</f>
+        <f>'Inputs - Categorical'!$C$5</f>
         <v>Panels</v>
       </c>
       <c r="I50" t="str">
-        <f>'Inputs - Categorical'!$C$16</f>
-        <v>Hardwood</v>
+        <f>'Inputs - Categorical'!$C$15</f>
+        <v>SPF</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="16" customHeight="1">
@@ -2092,19 +2098,19 @@
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f>$F$30</f>
         <v>3</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G51" t="str">
-        <f>'Inputs - Categorical'!C6</f>
+        <f>'Inputs - Categorical'!$C$6</f>
         <v>Paper</v>
       </c>
       <c r="I51" t="str">
-        <f>'Inputs - Categorical'!$C$16</f>
-        <v>Hardwood</v>
+        <f>'Inputs - Categorical'!$C$15</f>
+        <v>SPF</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="16" customHeight="1">
@@ -2116,19 +2122,19 @@
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f>$F$31</f>
         <v>4</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G52" t="str">
-        <f>'Inputs - Categorical'!C7</f>
+        <f>'Inputs - Categorical'!$C$7</f>
         <v>Bioenergy</v>
       </c>
       <c r="I52" t="str">
-        <f>'Inputs - Categorical'!$C$16</f>
-        <v>Hardwood</v>
+        <f>'Inputs - Categorical'!$C$15</f>
+        <v>SPF</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="16" customHeight="1">
@@ -2140,19 +2146,19 @@
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D54">
-        <f>F28</f>
+        <f>$F$28</f>
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G54" t="str">
-        <f>'Inputs - Categorical'!C4</f>
+        <f>'Inputs - Categorical'!$C$4</f>
         <v>Sawnwood</v>
       </c>
       <c r="I54" t="str">
-        <f>'Inputs - Categorical'!$C$15</f>
-        <v>Softwood</v>
+        <f>'Inputs - Categorical'!$C$16</f>
+        <v>Aspen</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="16" customHeight="1">
@@ -2160,23 +2166,23 @@
         <v>45</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ref="C55:C57" si="3">$C$43</f>
+        <f t="shared" ref="C55:C57" si="2">$C$43</f>
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:D57" si="4">F29</f>
+        <f>$F$29</f>
         <v>2</v>
       </c>
       <c r="E55">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G55" t="str">
-        <f>'Inputs - Categorical'!C5</f>
+        <f>'Inputs - Categorical'!$C$5</f>
         <v>Panels</v>
       </c>
       <c r="I55" t="str">
-        <f>'Inputs - Categorical'!$C$15</f>
-        <v>Softwood</v>
+        <f>'Inputs - Categorical'!$C$16</f>
+        <v>Aspen</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="16" customHeight="1">
@@ -2184,23 +2190,23 @@
         <v>45</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D56">
-        <f t="shared" si="4"/>
+        <f>$F$30</f>
         <v>3</v>
       </c>
       <c r="E56">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="G56" t="str">
-        <f>'Inputs - Categorical'!C6</f>
+        <f>'Inputs - Categorical'!$C$6</f>
         <v>Paper</v>
       </c>
       <c r="I56" t="str">
-        <f>'Inputs - Categorical'!$C$15</f>
-        <v>Softwood</v>
+        <f>'Inputs - Categorical'!$C$16</f>
+        <v>Aspen</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="16" customHeight="1">
@@ -2208,23 +2214,23 @@
         <v>45</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D57">
-        <f t="shared" si="4"/>
+        <f>$F$31</f>
         <v>4</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G57" t="str">
-        <f>'Inputs - Categorical'!C7</f>
+        <f>'Inputs - Categorical'!$C$7</f>
         <v>Bioenergy</v>
       </c>
       <c r="I57" t="str">
-        <f>'Inputs - Categorical'!$C$15</f>
-        <v>Softwood</v>
+        <f>'Inputs - Categorical'!$C$16</f>
+        <v>Aspen</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="16" customHeight="1">
@@ -2236,15 +2242,19 @@
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D62" si="5">F28</f>
+        <f>$F$28</f>
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G59" t="str">
-        <f>'Inputs - Categorical'!C4</f>
+        <f>'Inputs - Categorical'!$C$4</f>
         <v>Sawnwood</v>
+      </c>
+      <c r="I59" t="str">
+        <f>'Inputs - Categorical'!$C$17</f>
+        <v>Hem-Fir</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="16" customHeight="1">
@@ -2252,19 +2262,23 @@
         <v>45</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" ref="C60:C62" si="6">$C$43</f>
+        <f t="shared" ref="C60:C62" si="3">$C$43</f>
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D60">
-        <f t="shared" si="5"/>
+        <f>$F$29</f>
         <v>2</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="G60" t="str">
-        <f>'Inputs - Categorical'!C5</f>
+        <f>'Inputs - Categorical'!$C$5</f>
         <v>Panels</v>
+      </c>
+      <c r="I60" t="str">
+        <f>'Inputs - Categorical'!$C$17</f>
+        <v>Hem-Fir</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="16" customHeight="1">
@@ -2272,19 +2286,23 @@
         <v>45</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D61">
-        <f t="shared" si="5"/>
+        <f>$F$30</f>
         <v>3</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G61" t="str">
-        <f>'Inputs - Categorical'!C6</f>
+        <f>'Inputs - Categorical'!$C$6</f>
         <v>Paper</v>
+      </c>
+      <c r="I61" t="str">
+        <f>'Inputs - Categorical'!$C$17</f>
+        <v>Hem-Fir</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="16" customHeight="1">
@@ -2292,19 +2310,23 @@
         <v>45</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>Commodity Demand, CAT</v>
       </c>
       <c r="D62">
-        <f t="shared" si="5"/>
+        <f>$F$31</f>
         <v>4</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G62" t="str">
-        <f>'Inputs - Categorical'!C7</f>
+        <f>'Inputs - Categorical'!$C$7</f>
         <v>Bioenergy</v>
+      </c>
+      <c r="I62" t="str">
+        <f>'Inputs - Categorical'!$C$17</f>
+        <v>Hem-Fir</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="16" customHeight="1">
@@ -2312,28 +2334,204 @@
         <v>45</v>
       </c>
       <c r="C64" t="str">
+        <f>$C$43</f>
+        <v>Commodity Demand, CAT</v>
+      </c>
+      <c r="D64">
+        <f>F28</f>
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0.45</v>
+      </c>
+      <c r="G64" t="str">
+        <f>'Inputs - Categorical'!C4</f>
+        <v>Sawnwood</v>
+      </c>
+      <c r="I64" t="str">
+        <f>'Inputs - Categorical'!$C$18</f>
+        <v>DFL</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="16" customHeight="1">
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" ref="C65:C67" si="4">$C$43</f>
+        <v>Commodity Demand, CAT</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D67" si="5">F29</f>
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0.15</v>
+      </c>
+      <c r="G65" t="str">
+        <f>'Inputs - Categorical'!C5</f>
+        <v>Panels</v>
+      </c>
+      <c r="I65" t="str">
+        <f>'Inputs - Categorical'!$C$18</f>
+        <v>DFL</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="16" customHeight="1">
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="4"/>
+        <v>Commodity Demand, CAT</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>0.15</v>
+      </c>
+      <c r="G66" t="str">
+        <f>'Inputs - Categorical'!C6</f>
+        <v>Paper</v>
+      </c>
+      <c r="I66" t="str">
+        <f>'Inputs - Categorical'!$C$18</f>
+        <v>DFL</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="16" customHeight="1">
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="4"/>
+        <v>Commodity Demand, CAT</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>0.25</v>
+      </c>
+      <c r="G67" t="str">
+        <f>'Inputs - Categorical'!C7</f>
+        <v>Bioenergy</v>
+      </c>
+      <c r="I67" t="str">
+        <f>'Inputs - Categorical'!$C$18</f>
+        <v>DFL</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="16" customHeight="1">
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="str">
+        <f>$C$43</f>
+        <v>Commodity Demand, CAT</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69:D72" si="6">F28</f>
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f>'Inputs - Categorical'!C4</f>
+        <v>Sawnwood</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="16" customHeight="1">
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ref="C70:C72" si="7">$C$43</f>
+        <v>Commodity Demand, CAT</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f>'Inputs - Categorical'!C5</f>
+        <v>Panels</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="16" customHeight="1">
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="7"/>
+        <v>Commodity Demand, CAT</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f>'Inputs - Categorical'!C6</f>
+        <v>Paper</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="16" customHeight="1">
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="7"/>
+        <v>Commodity Demand, CAT</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f>'Inputs - Categorical'!C7</f>
+        <v>Bioenergy</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="16" customHeight="1">
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="str">
         <f>C45</f>
         <v>Combustion Parameters, CAT</v>
       </c>
-      <c r="D64">
+      <c r="D74">
         <v>1</v>
       </c>
-      <c r="E64">
+      <c r="E74">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="16" customHeight="1">
-      <c r="B66" t="s">
+    <row r="76" spans="2:9" ht="16" customHeight="1">
+      <c r="B76" t="s">
         <v>45</v>
       </c>
-      <c r="C66" t="str" cm="1">
-        <f t="array" ref="C66">C44</f>
+      <c r="C76" t="str" cm="1">
+        <f t="array" ref="C76">C44</f>
         <v>Landfill Parameters, CAT</v>
       </c>
-      <c r="D66">
+      <c r="D76">
         <v>1</v>
       </c>
-      <c r="E66">
+      <c r="E76">
         <v>1</v>
       </c>
     </row>
@@ -2346,17 +2544,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22152807-D21A-1A49-9C05-E8FAC8B5CEA8}">
-  <dimension ref="B1:K3"/>
+  <dimension ref="B1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -2406,7 +2604,7 @@
       </c>
       <c r="D2" t="str">
         <f>'Inputs - Categorical'!C15</f>
-        <v>Softwood</v>
+        <v>SPF</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2428,7 +2626,7 @@
       </c>
       <c r="D3" t="str">
         <f>'Inputs - Categorical'!C16</f>
-        <v>Hardwood</v>
+        <v>Aspen</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -2437,6 +2635,50 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="str">
+        <f>'Inputs - Flow Network'!$C$3</f>
+        <v>Roundwood, CAT</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'Inputs - Categorical'!C17</f>
+        <v>Hem-Fir</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Inputs - Flow Network'!$C$3</f>
+        <v>Roundwood, CAT</v>
+      </c>
+      <c r="D5" t="str">
+        <f>'Inputs - Categorical'!C18</f>
+        <v>DFL</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>1990</v>
       </c>
     </row>
@@ -2448,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990EC481-AC22-9A46-B3DF-F781248D750D}">
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2459,7 +2701,7 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -2513,7 +2755,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="3" customFormat="1">
@@ -2566,7 +2808,7 @@
         <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -2574,45 +2816,61 @@
         <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" s="3" customFormat="1">
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:5" s="3" customFormat="1">
       <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="3" customFormat="1">
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="3" customFormat="1">
-      <c r="B22" s="2" t="s">
+    <row r="26" spans="2:5" s="3" customFormat="1">
+      <c r="B26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2627,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FA93B2-6978-B84E-A9D8-E2FB98D2112C}">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2674,7 +2932,7 @@
         <v>1725</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>998</v>
@@ -2693,7 +2951,7 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="3" customFormat="1">
@@ -2715,7 +2973,7 @@
         <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" t="str">
         <f>C6</f>
